--- a/Excels/ActionExecutors.xlsx
+++ b/Excels/ActionExecutors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>唯一标识</t>
   </si>
@@ -37,6 +37,21 @@
     <t>名字</t>
   </si>
   <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>筛选器</t>
+  </si>
+  <si>
+    <t>筛选器参数</t>
+  </si>
+  <si>
+    <t>公式计算</t>
+  </si>
+  <si>
+    <t>公式计算参数</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -46,19 +61,73 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Args</t>
+  </si>
+  <si>
+    <t>FilterName</t>
+  </si>
+  <si>
+    <t>FilterArgs</t>
+  </si>
+  <si>
+    <t>FormulaName</t>
+  </si>
+  <si>
+    <t>FormulaArgs</t>
+  </si>
+  <si>
     <t>comment</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float+</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
-    <t>client</t>
+    <t>server</t>
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>JCombatExecutorDamage</t>
+  </si>
+  <si>
+    <t>TiktokDamageFormula</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）</t>
+  </si>
+  <si>
+    <t>JCombatExecutorDamageDataChange</t>
+  </si>
+  <si>
+    <t>JCombatFormulaChangeValue</t>
+  </si>
+  <si>
+    <t>1;-10</t>
+  </si>
+  <si>
+    <t>受到的伤害减少10点</t>
+  </si>
+  <si>
+    <t>JCombatExecutorAttributeDataChange</t>
+  </si>
+  <si>
+    <t>0;1.05</t>
+  </si>
+  <si>
+    <t>提高攻击力5%</t>
+  </si>
+  <si>
+    <t>1;30</t>
+  </si>
+  <si>
+    <t>提供速度30点</t>
   </si>
 </sst>
 </file>
@@ -674,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +751,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,228 +1067,241 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B36"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="34.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="28.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
         <v>5</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/ActionExecutors.xlsx
+++ b/Excels/ActionExecutors.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>唯一标识</t>
   </si>
@@ -103,6 +103,15 @@
     <t>对目标造成Damage(按公式）</t>
   </si>
   <si>
+    <t>对目标造成Damage(按公式）伤害提高5%</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）伤害提高10%</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）伤害提高15%</t>
+  </si>
+  <si>
     <t>JCombatExecutorDamageDataChange</t>
   </si>
   <si>
@@ -124,10 +133,76 @@
     <t>提高攻击力5%</t>
   </si>
   <si>
+    <t>0;1.1</t>
+  </si>
+  <si>
+    <t>提高攻击力10%</t>
+  </si>
+  <si>
+    <t>1;20</t>
+  </si>
+  <si>
+    <t>提高速度20点</t>
+  </si>
+  <si>
     <t>1;30</t>
   </si>
   <si>
-    <t>提供速度30点</t>
+    <t>提高速度30点</t>
+  </si>
+  <si>
+    <t>JCombatFormulaChangeValueExtraWithTurn</t>
+  </si>
+  <si>
+    <t>0;0.95;1;0.85</t>
+  </si>
+  <si>
+    <t>受到伤害-5%（首回合-15%）</t>
+  </si>
+  <si>
+    <t>0;0.90;1;0.75</t>
+  </si>
+  <si>
+    <t>受到伤害-10%（首回合-25%）</t>
+  </si>
+  <si>
+    <t>0;0.85;1;0.65</t>
+  </si>
+  <si>
+    <t>受到伤害-15%（首回合-35%）</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）40%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）45%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）50%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）55%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）60%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）65%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）70%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）75%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）80%伤害值</t>
+  </si>
+  <si>
+    <t>对目标造成Damage(按公式）85%伤害值</t>
+  </si>
+  <si>
+    <t>TiktokDamageFormulaExtraWithTurn</t>
   </si>
 </sst>
 </file>
@@ -140,10 +215,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,137 +695,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +837,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1067,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1078,8 +1172,9 @@
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="5" width="34.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="28.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1208,100 +1303,405 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>70</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
